--- a/BackTest/2020-01-16 BackTest OMG.xlsx
+++ b/BackTest/2020-01-16 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>787.3</v>
@@ -521,7 +521,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>787.3</v>
@@ -562,7 +562,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>787.3</v>
@@ -603,7 +603,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>787.3</v>
@@ -640,7 +640,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>787.3</v>
@@ -681,7 +681,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>787.3</v>
@@ -722,7 +722,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>787.3</v>
@@ -759,7 +759,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>787.3</v>
@@ -800,9 +800,11 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>787.3</v>
+      </c>
       <c r="J11" t="n">
         <v>787.3</v>
       </c>
@@ -839,9 +841,11 @@
         <v>-14665.69669358947</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>787.3</v>
+      </c>
       <c r="J12" t="n">
         <v>787.3</v>
       </c>
@@ -878,9 +882,11 @@
         <v>-14155.19669358947</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>781.8</v>
+      </c>
       <c r="J13" t="n">
         <v>787.3</v>
       </c>
@@ -917,9 +923,11 @@
         <v>-14501.77349358947</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>791.9</v>
+      </c>
       <c r="J14" t="n">
         <v>787.3</v>
       </c>
@@ -956,9 +964,11 @@
         <v>-14063.86299358947</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>785.7</v>
+      </c>
       <c r="J15" t="n">
         <v>787.3</v>
       </c>
@@ -995,9 +1005,11 @@
         <v>-15563.86299358947</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>793.8</v>
+      </c>
       <c r="J16" t="n">
         <v>787.3</v>
       </c>
@@ -1034,9 +1046,11 @@
         <v>-15953.36299358947</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>793.5</v>
+      </c>
       <c r="J17" t="n">
         <v>787.3</v>
       </c>
@@ -1073,9 +1087,11 @@
         <v>-15981.24019358947</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>793</v>
+      </c>
       <c r="J18" t="n">
         <v>787.3</v>
       </c>
@@ -1112,9 +1128,11 @@
         <v>-15981.24019358947</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>785.8</v>
+      </c>
       <c r="J19" t="n">
         <v>787.3</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>-15964.24019358947</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>785.8</v>
@@ -1192,7 +1210,7 @@
         <v>-16961.74019358947</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>790.9</v>
@@ -1233,7 +1251,7 @@
         <v>-18379.78539358947</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>790.3</v>
@@ -1274,7 +1292,7 @@
         <v>-18325.78539358947</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>783.8</v>
@@ -1315,7 +1333,7 @@
         <v>-15691.78539358947</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>785.9</v>
@@ -1356,7 +1374,7 @@
         <v>-15670.78539358947</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>793.6</v>
@@ -1397,7 +1415,7 @@
         <v>-16197.78539358947</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>793.7</v>
@@ -1438,7 +1456,7 @@
         <v>-16155.31749358947</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>793.1</v>
@@ -1479,9 +1497,11 @@
         <v>-16155.31749358947</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>793.5</v>
+      </c>
       <c r="J28" t="n">
         <v>787.3</v>
       </c>
@@ -1518,9 +1538,11 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>793.5</v>
+      </c>
       <c r="J29" t="n">
         <v>787.3</v>
       </c>
@@ -1557,7 +1579,7 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>790.6</v>
@@ -1598,7 +1620,7 @@
         <v>-16229.59749358947</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>790.6</v>
@@ -1639,7 +1661,7 @@
         <v>-16229.59749358947</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>791.8</v>
@@ -1680,7 +1702,7 @@
         <v>-16229.59749358947</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>791.8</v>
@@ -1721,7 +1743,7 @@
         <v>-16218.13509358947</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>791.8</v>
@@ -1762,7 +1784,7 @@
         <v>-16796.13509358947</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>795</v>
@@ -1803,7 +1825,7 @@
         <v>-17794.31819358946</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>789.9</v>
@@ -1844,9 +1866,11 @@
         <v>-17736.68659358946</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>789.4</v>
+      </c>
       <c r="J37" t="n">
         <v>787.3</v>
       </c>
@@ -1883,9 +1907,11 @@
         <v>-18276.30049358946</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>790.5</v>
+      </c>
       <c r="J38" t="n">
         <v>787.3</v>
       </c>
@@ -1922,7 +1948,7 @@
         <v>-17354.30049358946</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>789.4</v>
@@ -1963,7 +1989,7 @@
         <v>-17379.78799358946</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>799.2</v>
@@ -2004,7 +2030,7 @@
         <v>-17379.78799358946</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>792.1</v>
@@ -2045,9 +2071,11 @@
         <v>-17978.74509358946</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>792.1</v>
+      </c>
       <c r="J42" t="n">
         <v>787.3</v>
       </c>
@@ -2084,9 +2112,11 @@
         <v>-19469.47119358946</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>791.2</v>
+      </c>
       <c r="J43" t="n">
         <v>787.3</v>
       </c>
@@ -2123,9 +2153,11 @@
         <v>-19375.27129358946</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>788.2</v>
+      </c>
       <c r="J44" t="n">
         <v>787.3</v>
       </c>
@@ -2162,9 +2194,11 @@
         <v>-19375.27129358946</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>798.2</v>
+      </c>
       <c r="J45" t="n">
         <v>787.3</v>
       </c>
@@ -2201,9 +2235,11 @@
         <v>-18630.45309358946</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>798.2</v>
+      </c>
       <c r="J46" t="n">
         <v>787.3</v>
       </c>
@@ -2240,9 +2276,11 @@
         <v>-18630.45309358946</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>799.2</v>
+      </c>
       <c r="J47" t="n">
         <v>787.3</v>
       </c>
@@ -2279,7 +2317,7 @@
         <v>-18630.45309358946</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>799.2</v>
@@ -2320,7 +2358,7 @@
         <v>-18620.18099358946</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>799.2</v>
@@ -2361,7 +2399,7 @@
         <v>-18049.43929358946</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>802.9</v>
@@ -2402,7 +2440,7 @@
         <v>-18033.43929358946</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>804</v>
@@ -2443,9 +2481,11 @@
         <v>-17964.43929358946</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>806</v>
+      </c>
       <c r="J52" t="n">
         <v>787.3</v>
       </c>
@@ -2482,7 +2522,7 @@
         <v>-17964.43929358946</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>807.2</v>
@@ -2523,7 +2563,7 @@
         <v>-18203.67799358947</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>807.2</v>
@@ -2564,7 +2604,7 @@
         <v>-17363.67799358947</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>799.4</v>
@@ -2605,7 +2645,7 @@
         <v>-17396.94839358947</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>807.6</v>
@@ -2646,7 +2686,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>799.7</v>
@@ -2687,7 +2727,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>799.6</v>
@@ -2728,7 +2768,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>799.6</v>
@@ -2769,7 +2809,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>799.6</v>
@@ -2810,7 +2850,7 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>799.6</v>
@@ -2851,7 +2891,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>799.6</v>
@@ -2892,7 +2932,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>798.6</v>
@@ -2933,7 +2973,7 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>798.6</v>
@@ -2974,7 +3014,7 @@
         <v>-17644.64109358947</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>798.6</v>
@@ -3015,7 +3055,7 @@
         <v>-17687.97699358947</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>795</v>
@@ -3056,7 +3096,7 @@
         <v>-17686.35289358947</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>794</v>
@@ -3097,7 +3137,7 @@
         <v>-16486.35289358947</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>795.1</v>
@@ -3138,7 +3178,7 @@
         <v>-18069.72669358947</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>802.9</v>
@@ -3179,7 +3219,7 @@
         <v>-17033.89979358947</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>796.1</v>
@@ -3220,7 +3260,7 @@
         <v>-17084.24529358947</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>798.3</v>
@@ -3261,7 +3301,7 @@
         <v>-15884.24529358947</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>795.1</v>
@@ -3302,7 +3342,7 @@
         <v>-15928.32179358947</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>805.5</v>
@@ -3343,7 +3383,7 @@
         <v>-18578.06439358947</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>795.1</v>
@@ -3384,7 +3424,7 @@
         <v>-18106.66779358947</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>794.1</v>
@@ -3425,7 +3465,7 @@
         <v>-18106.66779358947</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>794.2</v>
@@ -3466,7 +3506,7 @@
         <v>-18033.01509358947</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>794.2</v>
@@ -3507,7 +3547,7 @@
         <v>-17785.45970307084</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>806.9</v>
@@ -3548,7 +3588,7 @@
         <v>-14765.45970307084</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>807.9</v>
@@ -3589,7 +3629,7 @@
         <v>-14412.97557869507</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>808</v>
@@ -3630,9 +3670,11 @@
         <v>-12898.80177869507</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>809</v>
+      </c>
       <c r="J81" t="n">
         <v>787.3</v>
       </c>
@@ -3669,9 +3711,11 @@
         <v>-5902.877103070842</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>810</v>
+      </c>
       <c r="J82" t="n">
         <v>787.3</v>
       </c>
@@ -3825,11 +3869,9 @@
         <v>-9852.322803070841</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>787.3</v>
       </c>
@@ -3866,11 +3908,9 @@
         <v>-9852.322803070841</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>805.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>787.3</v>
       </c>
@@ -3907,11 +3947,9 @@
         <v>-9852.322803070841</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>805.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>787.3</v>
       </c>
@@ -3948,7 +3986,7 @@
         <v>-9784.322803070841</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>805.9</v>
@@ -3989,7 +4027,7 @@
         <v>-9639.402203070842</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>808</v>
@@ -4030,7 +4068,7 @@
         <v>-9639.402203070842</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>809</v>
@@ -4071,7 +4109,7 @@
         <v>-9509.984201102337</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>809</v>
@@ -4112,7 +4150,7 @@
         <v>-10266.55920110234</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>812.8</v>
@@ -4153,9 +4191,11 @@
         <v>-10462.13820110234</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>809</v>
+      </c>
       <c r="J94" t="n">
         <v>787.3</v>
       </c>
@@ -4192,9 +4232,11 @@
         <v>-10605.56390110234</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>806.3</v>
+      </c>
       <c r="J95" t="n">
         <v>787.3</v>
       </c>
@@ -4231,9 +4273,11 @@
         <v>-10605.56390110234</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>803.9</v>
+      </c>
       <c r="J96" t="n">
         <v>787.3</v>
       </c>
@@ -4270,9 +4314,11 @@
         <v>-9536.326401102338</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>803.9</v>
+      </c>
       <c r="J97" t="n">
         <v>787.3</v>
       </c>
@@ -8170,7 +8216,7 @@
         <v>17747.2432497849</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
@@ -8178,13 +8224,15 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>1.125318811126635</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8212,14 +8260,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8248,17 +8290,11 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8287,17 +8323,11 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8326,17 +8356,11 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8365,17 +8389,11 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8404,17 +8422,11 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8443,17 +8455,11 @@
         <v>15251.08274978491</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8482,17 +8488,11 @@
         <v>15231.09284978491</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8521,17 +8521,11 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8560,17 +8554,11 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8599,17 +8587,11 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8638,17 +8620,11 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8677,17 +8653,11 @@
         <v>18991.86624978491</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8716,17 +8686,11 @@
         <v>22232.93304978491</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8755,17 +8719,11 @@
         <v>22259.93304978491</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8794,17 +8752,11 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +8788,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +8821,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +8854,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +8887,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8920,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9028,17 +8950,11 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8986,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +9019,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9145,17 +9049,11 @@
         <v>20444.9209683453</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9184,17 +9082,11 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +9118,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9262,17 +9148,11 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9304,14 +9184,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9340,17 +9214,11 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9379,17 +9247,11 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9418,17 +9280,11 @@
         <v>19949.3543683453</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9457,17 +9313,11 @@
         <v>17207.3202683453</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9496,17 +9346,11 @@
         <v>17207.3202683453</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9535,17 +9379,11 @@
         <v>17209.8297683453</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9574,17 +9412,11 @@
         <v>15383.2511683453</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9613,17 +9445,11 @@
         <v>15383.2511683453</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9652,17 +9478,11 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9691,17 +9511,11 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9730,17 +9544,11 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9769,17 +9577,11 @@
         <v>13923.4039683453</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9808,17 +9610,11 @@
         <v>13723.4039683453</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9847,17 +9643,11 @@
         <v>13766.1838683453</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9886,17 +9676,11 @@
         <v>13766.1838683453</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9712,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9964,17 +9742,11 @@
         <v>16656.64290367245</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10006,14 +9778,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10042,17 +9808,11 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10081,17 +9841,11 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10120,17 +9874,11 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10162,14 +9910,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10198,17 +9940,11 @@
         <v>11963.85450367245</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10237,17 +9973,11 @@
         <v>11963.85450367245</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10276,17 +10006,11 @@
         <v>11895.18080367245</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10315,17 +10039,11 @@
         <v>12347.34600367245</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10354,17 +10072,11 @@
         <v>12152.40050367245</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10393,17 +10105,11 @@
         <v>12016.05160367245</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10432,17 +10138,11 @@
         <v>12016.05160367245</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10471,17 +10171,11 @@
         <v>11152.88410367245</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10510,17 +10204,11 @@
         <v>11086.28870367245</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10549,17 +10237,11 @@
         <v>11074.50780367245</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10588,17 +10270,11 @@
         <v>11587.50780367245</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10627,17 +10303,11 @@
         <v>13174.85940367245</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10666,17 +10336,11 @@
         <v>13194.85940367245</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10705,17 +10369,11 @@
         <v>13115.48240367245</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10744,17 +10402,11 @@
         <v>13115.48240367245</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10783,17 +10435,11 @@
         <v>13115.48240367245</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10822,17 +10468,11 @@
         <v>13117.30770367245</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10861,17 +10501,11 @@
         <v>13118.50150367245</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10900,17 +10534,11 @@
         <v>12918.50150367245</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10939,17 +10567,11 @@
         <v>12918.50150367245</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10978,17 +10600,11 @@
         <v>12618.50150367245</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11017,17 +10633,11 @@
         <v>12312.77520367245</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11056,17 +10666,11 @@
         <v>12612.77520367245</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11095,17 +10699,11 @@
         <v>12312.77520367245</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11134,17 +10732,11 @@
         <v>12612.77520367245</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11173,17 +10765,11 @@
         <v>12612.77520367245</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11215,14 +10801,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11254,14 +10834,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11293,14 +10867,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11332,14 +10900,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11371,14 +10933,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11410,14 +10966,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11449,14 +10999,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +11032,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11527,14 +11065,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11566,14 +11098,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11605,14 +11131,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11644,14 +11164,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11683,14 +11197,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11722,14 +11230,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11761,14 +11263,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11800,14 +11296,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11839,14 +11329,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11878,14 +11362,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11917,14 +11395,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11956,14 +11428,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11995,14 +11461,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12034,14 +11494,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12073,14 +11527,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12112,14 +11560,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12151,14 +11593,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12190,14 +11626,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12229,14 +11659,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12268,14 +11692,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12307,14 +11725,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12346,14 +11758,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12385,14 +11791,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12424,14 +11824,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12463,14 +11857,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12502,14 +11890,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12541,14 +11923,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12580,14 +11956,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12619,14 +11989,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12658,14 +12022,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12697,14 +12055,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12736,14 +12088,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12775,14 +12121,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12814,14 +12154,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12853,14 +12187,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12892,14 +12220,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12931,14 +12253,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12970,14 +12286,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13009,14 +12319,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13048,14 +12352,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13087,14 +12385,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13126,14 +12418,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13165,14 +12451,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13204,14 +12484,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13243,14 +12517,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13282,14 +12550,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13321,14 +12583,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13360,14 +12616,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13399,14 +12649,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13438,14 +12682,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13477,14 +12715,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13516,14 +12748,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13555,14 +12781,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13594,14 +12814,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13633,14 +12847,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13672,14 +12880,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13711,14 +12913,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13750,14 +12946,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13789,14 +12979,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13828,14 +13012,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13867,14 +13045,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13906,14 +13078,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13945,14 +13111,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13984,14 +13144,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14023,14 +13177,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14062,14 +13210,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14101,14 +13243,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14137,23 +13273,15 @@
         <v>20796.34519908009</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
-        <v>1.115157500317541</v>
-      </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -14178,7 +13306,7 @@
         <v>20792.74079908009</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -14211,7 +13339,7 @@
         <v>20947.17449908009</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -14244,7 +13372,7 @@
         <v>20985.93449908009</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14277,7 +13405,7 @@
         <v>20985.93449908009</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -14310,7 +13438,7 @@
         <v>20988.34149908009</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14343,7 +13471,7 @@
         <v>20835.02969908009</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14376,7 +13504,7 @@
         <v>20947.77469908009</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14409,7 +13537,7 @@
         <v>21012.77689908009</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14442,7 +13570,7 @@
         <v>21599.27729908009</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14475,7 +13603,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14508,7 +13636,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14541,7 +13669,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14574,7 +13702,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14607,7 +13735,7 @@
         <v>19329.84809908009</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14640,7 +13768,7 @@
         <v>23979.35929908009</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14673,7 +13801,7 @@
         <v>23617.45929908008</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14706,7 +13834,7 @@
         <v>23921.18769908008</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14739,7 +13867,7 @@
         <v>25343.55189908008</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -15399,7 +14527,7 @@
         <v>22520.89999085098</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15641,6 +14769,6 @@
       <c r="M395" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest OMG.xlsx
+++ b/BackTest/2020-01-16 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,2274 +715,1832 @@
         <v>-13977.06969358947</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>787.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="C11" t="n">
         <v>787.3</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="D11" t="n">
+        <v>787.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>787.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>522.9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-13977.06969358947</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>787.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>781.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>787.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>781.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>688.627</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-14665.69669358947</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>791.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>791.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>510.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-14155.19669358947</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>785.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>794.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>785.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>346.5768</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-14501.77349358947</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>793.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>793.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>793.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>793.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>437.9105</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-14063.86299358947</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>793.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>793.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-15563.86299358947</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>793</v>
+      </c>
+      <c r="F17" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-15953.36299358947</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>788.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>788.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27.8772</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-15981.24019358947</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>785.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-15981.24019358947</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>790.9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>790.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>790.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>790.9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-15964.24019358947</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>790.1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>790.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>790.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>790.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-16961.74019358947</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>783.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>783.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>793.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>783.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1418.0452</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-18379.78539358947</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-18325.78539358947</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>791.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>793.6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>793.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>791.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2634</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-15691.78539358947</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-15670.78539358947</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>793.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>527</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-16197.78539358947</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42.4679</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-16155.31749358947</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>161</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-16155.31749358947</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>94.28</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-16249.59749358947</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-16249.59749358947</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>791.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>791.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-16229.59749358947</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>90.705</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-16229.59749358947</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>791.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>47</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-16229.59749358947</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>795</v>
+      </c>
+      <c r="D34" t="n">
+        <v>795</v>
+      </c>
+      <c r="E34" t="n">
+        <v>793.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>11.4624</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-16218.13509358947</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>789.9</v>
+      </c>
+      <c r="C35" t="n">
+        <v>789.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>789.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>789.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>578</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-16796.13509358947</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>789.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>789.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>788.1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>998.1831</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-17794.31819358946</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>790.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>790.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>790.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>790.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>57.6316</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-17736.68659358946</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>789.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>789.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>539.6138999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-18276.30049358946</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>796</v>
+      </c>
+      <c r="C39" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>796</v>
+      </c>
+      <c r="F39" t="n">
+        <v>922</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-17354.30049358946</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25.4875</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-17379.78799358946</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>792.1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21.9967</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-17379.78799358946</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>791.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>791.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>792.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>791.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>598.9571</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-17978.74509358946</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>791.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>788.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>791.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>788.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1490.7261</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-19469.47119358946</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>94.1999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-19375.27129358946</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>798.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>47.08</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-19375.27129358946</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>744.8182</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-18630.45309358946</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>26.8126</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-18630.45309358946</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7665</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-18630.45309358946</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10.2721</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-18620.18099358946</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>804</v>
+      </c>
+      <c r="D50" t="n">
+        <v>804</v>
+      </c>
+      <c r="E50" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>570.7417</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-18049.43929358946</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>806</v>
+      </c>
+      <c r="C51" t="n">
+        <v>806</v>
+      </c>
+      <c r="D51" t="n">
+        <v>806</v>
+      </c>
+      <c r="E51" t="n">
+        <v>806</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-18033.43929358946</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>806</v>
+      </c>
+      <c r="C52" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>806</v>
+      </c>
+      <c r="F52" t="n">
+        <v>69</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-17964.43929358946</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>239.2387</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-17964.43929358946</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>799.4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>799.4</v>
+      </c>
+      <c r="F54" t="n">
+        <v>239.2387</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-18203.67799358947</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>840</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-17363.67799358947</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>33.2704</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-17396.94839358947</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12.7341</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-17409.68249358947</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>107.5351</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-17409.68249358947</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="F59" t="n">
+        <v>27.2932</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-17409.68249358947</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="C60" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22.0569</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-17409.68249358947</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>798.7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="F61" t="n">
+        <v>84.42270000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-17409.68249358947</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="C62" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>68.682</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-17478.36449358947</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>798.7</v>
+      </c>
+      <c r="C63" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>798.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.5715</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-17478.36449358947</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>798.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>798.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>798.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>733.1774</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-17478.36449358947</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>796.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>795</v>
+      </c>
+      <c r="D65" t="n">
+        <v>796.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>795</v>
+      </c>
+      <c r="F65" t="n">
+        <v>166.2766</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-17644.64109358947</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>522.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-13977.06969358947</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>787.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>781.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>787.6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>781.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>688.627</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-14665.69669358947</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>791.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>791.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>510.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-14155.19669358947</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>781.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>785.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>794.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>785.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>346.5768</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-14501.77349358947</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>791.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>793.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>793.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>793.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>793.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>437.9105</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-14063.86299358947</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>785.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>793.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>793.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-15563.86299358947</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>793.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>793</v>
-      </c>
-      <c r="D17" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>793</v>
-      </c>
-      <c r="F17" t="n">
-        <v>389.5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-15953.36299358947</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>788.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>788.2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27.8772</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-15981.24019358947</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>793</v>
-      </c>
-      <c r="J18" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-15981.24019358947</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>790.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>790.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>790.9</v>
-      </c>
-      <c r="E20" t="n">
-        <v>790.9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-15964.24019358947</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>785.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>790.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>790.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>790.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>790.1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>997.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-16961.74019358947</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>790.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>783.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>783.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>793.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>783.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1418.0452</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-18379.78539358947</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>790.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="F23" t="n">
-        <v>54</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-18325.78539358947</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>783.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>791.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>793.6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>793.6</v>
-      </c>
-      <c r="E24" t="n">
-        <v>791.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2634</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-15691.78539358947</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>21</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-15670.78539358947</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>793.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>527</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-16197.78539358947</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>42.4679</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-16155.31749358947</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>793.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>161</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-16155.31749358947</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="C29" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="D29" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="E29" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>94.28</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-16249.59749358947</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>793.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="C30" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="E30" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-16249.59749358947</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>791.7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>791.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>20</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-16229.59749358947</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>790.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>90.705</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-16229.59749358947</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>47</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-16229.59749358947</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>795</v>
-      </c>
-      <c r="D34" t="n">
-        <v>795</v>
-      </c>
-      <c r="E34" t="n">
-        <v>793.7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>11.4624</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-16218.13509358947</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>791.8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>789.9</v>
-      </c>
-      <c r="C35" t="n">
-        <v>789.9</v>
-      </c>
-      <c r="D35" t="n">
-        <v>789.9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>789.9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>578</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-16796.13509358947</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>795</v>
-      </c>
-      <c r="J35" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>789.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>789.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>788.1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>998.1831</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-17794.31819358946</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>789.9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>790.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>790.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>790.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>790.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>57.6316</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-17736.68659358946</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>789.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>789.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>539.6138999999999</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-18276.30049358946</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>790.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>796</v>
-      </c>
-      <c r="C39" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="D39" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>796</v>
-      </c>
-      <c r="F39" t="n">
-        <v>922</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-17354.30049358946</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>789.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>25.4875</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-17379.78799358946</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21.9967</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-17379.78799358946</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>792.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>598.9571</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-17978.74509358946</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>792.1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>788.2</v>
-      </c>
-      <c r="D43" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>788.2</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1490.7261</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-19469.47119358946</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>791.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>94.1999</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-19375.27129358946</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>788.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="F45" t="n">
-        <v>47.08</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-19375.27129358946</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="D46" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>744.8182</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-18630.45309358946</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>798.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>26.8126</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-18630.45309358946</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.7665</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-18630.45309358946</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="E49" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10.2721</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-18620.18099358946</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>799.2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>804</v>
-      </c>
-      <c r="D50" t="n">
-        <v>804</v>
-      </c>
-      <c r="E50" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>570.7417</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-18049.43929358946</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>802.9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>806</v>
-      </c>
-      <c r="C51" t="n">
-        <v>806</v>
-      </c>
-      <c r="D51" t="n">
-        <v>806</v>
-      </c>
-      <c r="E51" t="n">
-        <v>806</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-18033.43929358946</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>804</v>
-      </c>
-      <c r="J51" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>806</v>
-      </c>
-      <c r="C52" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>806</v>
-      </c>
-      <c r="F52" t="n">
-        <v>69</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-17964.43929358946</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>806</v>
-      </c>
-      <c r="J52" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>239.2387</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-17964.43929358946</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>799.4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>799.4</v>
-      </c>
-      <c r="F54" t="n">
-        <v>239.2387</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-18203.67799358947</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>807.2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>807.6</v>
-      </c>
-      <c r="C55" t="n">
-        <v>807.6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>807.6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>807.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>840</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-17363.67799358947</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>799.4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>33.2704</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-17396.94839358947</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>807.6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>12.7341</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-17409.68249358947</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>107.5351</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-17409.68249358947</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="D59" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="F59" t="n">
-        <v>27.2932</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-17409.68249358947</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>799.7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="F60" t="n">
-        <v>22.0569</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-17409.68249358947</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>798.7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="F61" t="n">
-        <v>84.42270000000001</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-17409.68249358947</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="C62" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="E62" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="F62" t="n">
-        <v>68.682</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-17478.36449358947</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>798.7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>798.7</v>
-      </c>
-      <c r="E63" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>10.5715</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-17478.36449358947</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>798.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>798.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>798.5</v>
-      </c>
-      <c r="F64" t="n">
-        <v>733.1774</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-17478.36449358947</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>796.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>795</v>
-      </c>
-      <c r="D65" t="n">
-        <v>796.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>795</v>
-      </c>
-      <c r="F65" t="n">
-        <v>166.2766</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-17644.64109358947</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>798.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3060,9 +2574,7 @@
       <c r="I66" t="n">
         <v>795</v>
       </c>
-      <c r="J66" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,9 +2613,7 @@
       <c r="I67" t="n">
         <v>794</v>
       </c>
-      <c r="J67" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,9 +2652,7 @@
       <c r="I68" t="n">
         <v>795.1</v>
       </c>
-      <c r="J68" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3183,9 +2691,7 @@
       <c r="I69" t="n">
         <v>802.9</v>
       </c>
-      <c r="J69" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,9 +2730,7 @@
       <c r="I70" t="n">
         <v>796.1</v>
       </c>
-      <c r="J70" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3265,9 +2769,7 @@
       <c r="I71" t="n">
         <v>798.3</v>
       </c>
-      <c r="J71" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,9 +2808,7 @@
       <c r="I72" t="n">
         <v>795.1</v>
       </c>
-      <c r="J72" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,9 +2847,7 @@
       <c r="I73" t="n">
         <v>805.5</v>
       </c>
-      <c r="J73" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,9 +2886,7 @@
       <c r="I74" t="n">
         <v>795.1</v>
       </c>
-      <c r="J74" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,9 +2925,7 @@
       <c r="I75" t="n">
         <v>794.1</v>
       </c>
-      <c r="J75" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3470,9 +2964,7 @@
       <c r="I76" t="n">
         <v>794.2</v>
       </c>
-      <c r="J76" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,9 +3003,7 @@
       <c r="I77" t="n">
         <v>794.2</v>
       </c>
-      <c r="J77" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,9 +3042,7 @@
       <c r="I78" t="n">
         <v>806.9</v>
       </c>
-      <c r="J78" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,14 +3076,10 @@
         <v>-14765.45970307084</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>807.9</v>
-      </c>
-      <c r="J79" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,14 +3113,10 @@
         <v>-14412.97557869507</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>808</v>
-      </c>
-      <c r="J80" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,14 +3150,10 @@
         <v>-12898.80177869507</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>809</v>
-      </c>
-      <c r="J81" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,14 +3187,10 @@
         <v>-5902.877103070842</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>810</v>
-      </c>
-      <c r="J82" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,9 +3227,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,9 +3264,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,9 +3301,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,9 +3338,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,9 +3375,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,9 +3412,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,14 +3446,10 @@
         <v>-9784.322803070841</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>805.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,14 +3483,10 @@
         <v>-9639.402203070842</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>808</v>
-      </c>
-      <c r="J90" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,14 +3520,10 @@
         <v>-9639.402203070842</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>809</v>
-      </c>
-      <c r="J91" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,14 +3557,10 @@
         <v>-9509.984201102337</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>809</v>
-      </c>
-      <c r="J92" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,14 +3594,10 @@
         <v>-10266.55920110234</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>812.8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,14 +3631,10 @@
         <v>-10462.13820110234</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>809</v>
-      </c>
-      <c r="J94" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,14 +3668,10 @@
         <v>-10605.56390110234</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>806.3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,14 +3705,10 @@
         <v>-10605.56390110234</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>803.9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,14 +3742,10 @@
         <v>-9536.326401102338</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>803.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>787.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +3782,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,9 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,9 +3856,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,9 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,9 +3930,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,9 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,9 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,9 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4078,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,9 +4115,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4152,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,9 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,20 +4223,16 @@
         <v>1818.138598897663</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>787.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4862,17 +4258,11 @@
         <v>2058.138598897663</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4294,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4940,17 +4324,11 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4979,17 +4357,11 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5018,17 +4390,11 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5057,17 +4423,11 @@
         <v>7694.907926928237</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5096,17 +4456,11 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5135,17 +4489,11 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5174,17 +4522,11 @@
         <v>2513.120726928239</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5213,17 +4555,11 @@
         <v>5110.211526928239</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5252,17 +4588,11 @@
         <v>3426.221826928238</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5291,17 +4621,11 @@
         <v>3449.604337720445</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5330,17 +4654,11 @@
         <v>3450.604337720445</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5369,17 +4687,11 @@
         <v>3418.004337720445</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +4723,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5447,17 +4753,11 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5486,17 +4786,11 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5525,17 +4819,11 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5564,17 +4852,11 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5603,17 +4885,11 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5642,17 +4918,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5681,17 +4951,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5720,17 +4984,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5759,17 +5017,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5798,17 +5050,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5837,17 +5083,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5876,17 +5116,11 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5915,17 +5149,11 @@
         <v>-6174.573962279555</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5954,17 +5182,11 @@
         <v>-6387.410262279555</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5993,17 +5215,11 @@
         <v>-6516.791162279555</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6032,17 +5248,11 @@
         <v>-6352.891162279556</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6071,17 +5281,11 @@
         <v>-6511.391162279556</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6110,17 +5314,11 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6149,17 +5347,11 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6188,17 +5380,11 @@
         <v>-4338.161562279556</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6227,17 +5413,11 @@
         <v>3913.181237720444</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6266,17 +5446,11 @@
         <v>5037.695137720444</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6305,17 +5479,11 @@
         <v>4842.262737720444</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6344,17 +5512,11 @@
         <v>4263.897837720444</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6383,17 +5545,11 @@
         <v>3595.115837720444</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6422,17 +5578,11 @@
         <v>3095.115837720444</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6461,17 +5611,11 @@
         <v>3384.115837720444</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +5713,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +5746,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6734,17 +5842,11 @@
         <v>5717.907317953138</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +5878,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6812,17 +5908,11 @@
         <v>6491.907317953138</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6971,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7166,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7322,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +6571,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +6835,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +6901,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +6934,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7000,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7033,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7066,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8216,23 +7096,15 @@
         <v>17747.2432497849</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>787.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>1.125318811126635</v>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8290,7 +7162,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8323,7 +7195,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8356,7 +7228,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8389,7 +7261,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8422,7 +7294,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8455,7 +7327,7 @@
         <v>15251.08274978491</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8488,7 +7360,7 @@
         <v>15231.09284978491</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8521,7 +7393,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8554,7 +7426,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8587,7 +7459,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8620,7 +7492,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8653,7 +7525,7 @@
         <v>18991.86624978491</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8686,7 +7558,7 @@
         <v>22232.93304978491</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8719,7 +7591,7 @@
         <v>22259.93304978491</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8752,7 +7624,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8950,7 +7822,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -9049,7 +7921,7 @@
         <v>20444.9209683453</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9082,7 +7954,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9148,7 +8020,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9214,7 +8086,7 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9247,7 +8119,7 @@
         <v>20035.9380683453</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9280,7 +8152,7 @@
         <v>19949.3543683453</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9313,7 +8185,7 @@
         <v>17207.3202683453</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9346,7 +8218,7 @@
         <v>17207.3202683453</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9379,7 +8251,7 @@
         <v>17209.8297683453</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9412,7 +8284,7 @@
         <v>15383.2511683453</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9445,7 +8317,7 @@
         <v>15383.2511683453</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9478,7 +8350,7 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9511,7 +8383,7 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9544,7 +8416,7 @@
         <v>14919.3686683453</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9577,7 +8449,7 @@
         <v>13923.4039683453</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9610,7 +8482,7 @@
         <v>13723.4039683453</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9643,7 +8515,7 @@
         <v>13766.1838683453</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9676,7 +8548,7 @@
         <v>13766.1838683453</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9742,7 +8614,7 @@
         <v>16656.64290367245</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9808,7 +8680,7 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9841,7 +8713,7 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9874,7 +8746,7 @@
         <v>13467.03300367245</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9940,7 +8812,7 @@
         <v>11963.85450367245</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9973,7 +8845,7 @@
         <v>11963.85450367245</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10006,7 +8878,7 @@
         <v>11895.18080367245</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10039,7 +8911,7 @@
         <v>12347.34600367245</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10072,7 +8944,7 @@
         <v>12152.40050367245</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10105,7 +8977,7 @@
         <v>12016.05160367245</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10138,7 +9010,7 @@
         <v>12016.05160367245</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10171,7 +9043,7 @@
         <v>11152.88410367245</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10204,7 +9076,7 @@
         <v>11086.28870367245</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10237,7 +9109,7 @@
         <v>11074.50780367245</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -13372,7 +12244,7 @@
         <v>20985.93449908009</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13405,7 +12277,7 @@
         <v>20985.93449908009</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13438,7 +12310,7 @@
         <v>20988.34149908009</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13471,7 +12343,7 @@
         <v>20835.02969908009</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13504,7 +12376,7 @@
         <v>20947.77469908009</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13537,7 +12409,7 @@
         <v>21012.77689908009</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13570,7 +12442,7 @@
         <v>21599.27729908009</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13603,7 +12475,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13636,7 +12508,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13669,7 +12541,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13702,7 +12574,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13735,7 +12607,7 @@
         <v>19329.84809908009</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13768,7 +12640,7 @@
         <v>23979.35929908009</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13801,7 +12673,7 @@
         <v>23617.45929908008</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13834,7 +12706,7 @@
         <v>23921.18769908008</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13867,7 +12739,7 @@
         <v>25343.55189908008</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14769,6 +13641,6 @@
       <c r="M395" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest OMG.xlsx
+++ b/BackTest/2020-01-16 BackTest OMG.xlsx
@@ -1144,10 +1144,14 @@
         <v>-18325.78539358947</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>783.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>783.8</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1181,19 @@
         <v>-15691.78539358947</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>783.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1225,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>783.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1360,14 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1397,19 @@
         <v>-16249.59749358947</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1438,19 @@
         <v>-16229.59749358947</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>790.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1674,19 @@
         <v>-17736.68659358946</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>789.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1715,19 @@
         <v>-18276.30049358946</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>790.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1759,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1798,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1837,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1876,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1954,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1993,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2071,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2146,19 @@
         <v>-18620.18099358946</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2190,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2229,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2304,19 @@
         <v>-17964.43929358946</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2345,19 @@
         <v>-18203.67799358947</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>807.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2386,19 @@
         <v>-17363.67799358947</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>799.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2427,19 @@
         <v>-17396.94839358947</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>807.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2468,19 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>799.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2509,19 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2550,19 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2591,19 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2632,19 @@
         <v>-17409.68249358947</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2673,19 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>799.6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2714,19 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2755,19 @@
         <v>-17478.36449358947</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>798.6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2535,10 +2801,12 @@
       <c r="I65" t="n">
         <v>798.6</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2574,7 +2842,9 @@
       <c r="I66" t="n">
         <v>795</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,7 +2883,9 @@
       <c r="I67" t="n">
         <v>794</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2652,7 +2924,9 @@
       <c r="I68" t="n">
         <v>795.1</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,7 +2965,9 @@
       <c r="I69" t="n">
         <v>802.9</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,7 +3006,9 @@
       <c r="I70" t="n">
         <v>796.1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,7 +3047,9 @@
       <c r="I71" t="n">
         <v>798.3</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,7 +3088,9 @@
       <c r="I72" t="n">
         <v>795.1</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,7 +3129,9 @@
       <c r="I73" t="n">
         <v>805.5</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2886,7 +3170,9 @@
       <c r="I74" t="n">
         <v>795.1</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2925,7 +3211,9 @@
       <c r="I75" t="n">
         <v>794.1</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2964,7 +3252,9 @@
       <c r="I76" t="n">
         <v>794.2</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,7 +3293,9 @@
       <c r="I77" t="n">
         <v>794.2</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,7 +3334,9 @@
       <c r="I78" t="n">
         <v>806.9</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,10 +3370,14 @@
         <v>-14765.45970307084</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>807.9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,10 +3411,14 @@
         <v>-14412.97557869507</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>808</v>
+      </c>
+      <c r="J80" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,10 +3452,14 @@
         <v>-12898.80177869507</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>809</v>
+      </c>
+      <c r="J81" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,10 +3493,14 @@
         <v>-5902.877103070842</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>810</v>
+      </c>
+      <c r="J82" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,7 +3537,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3264,7 +3576,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,7 +3615,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,7 +3654,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3449,7 +3771,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,7 +3849,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3560,7 +3888,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,7 +3927,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3634,7 +3966,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3671,7 +4005,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,7 +4044,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,7 +4083,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,7 +4161,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,7 +4200,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,7 +4239,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,7 +4278,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,7 +4356,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,7 +4395,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4078,7 +4434,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,7 +4473,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,7 +4512,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,7 +4551,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4223,16 +4587,20 @@
         <v>1818.138598897663</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>793.5</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4258,11 +4626,17 @@
         <v>2058.138598897663</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4668,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4324,11 +4704,17 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4743,17 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4782,17 @@
         <v>5037.582726928237</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4821,17 @@
         <v>7694.907926928237</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4860,17 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4899,17 @@
         <v>10915.66652692824</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4938,17 @@
         <v>2513.120726928239</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4977,17 @@
         <v>5110.211526928239</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +5016,17 @@
         <v>3426.221826928238</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +5055,17 @@
         <v>3449.604337720445</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +5094,17 @@
         <v>3450.604337720445</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +5133,17 @@
         <v>3418.004337720445</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4753,11 +5211,17 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4786,11 +5250,17 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +5289,17 @@
         <v>1960.922937720445</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4852,11 +5328,17 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4885,11 +5367,17 @@
         <v>1989.022937720445</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +5406,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4951,11 +5445,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +5484,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +5523,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +5562,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +5601,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5116,11 +5640,17 @@
         <v>1996.957437720445</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5149,11 +5679,17 @@
         <v>-6174.573962279555</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +5718,17 @@
         <v>-6387.410262279555</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +5757,17 @@
         <v>-6516.791162279555</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5796,17 @@
         <v>-6352.891162279556</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +5835,17 @@
         <v>-6511.391162279556</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5314,11 +5874,17 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5347,11 +5913,17 @@
         <v>-6082.024662279556</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5380,11 +5952,17 @@
         <v>-4338.161562279556</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5991,17 @@
         <v>3913.181237720444</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5446,11 +6030,17 @@
         <v>5037.695137720444</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +6069,17 @@
         <v>4842.262737720444</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5512,11 +6108,17 @@
         <v>4263.897837720444</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5545,11 +6147,17 @@
         <v>3595.115837720444</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5578,11 +6186,17 @@
         <v>3095.115837720444</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5611,11 +6225,17 @@
         <v>3384.115837720444</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +6267,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +6306,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +6384,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6423,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6462,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +6498,17 @@
         <v>5717.907317953138</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6540,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +6576,17 @@
         <v>6491.907317953138</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6618,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5977,8 +6657,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6696,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6735,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6813,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6142,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6175,8 +6891,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6208,8 +6930,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6969,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +7008,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +7086,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +7125,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +7164,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +7203,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6505,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6571,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +7398,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +7437,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +7476,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +7515,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +7554,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +7593,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +7632,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7671,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7710,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6901,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +7866,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7030,15 +7902,23 @@
         <v>15816.3730497849</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>793.5</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>1.104766855702584</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.015732924021489</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7063,7 +7943,7 @@
         <v>15816.3730497849</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7129,7 +8009,7 @@
         <v>15056.6850497849</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7162,7 +8042,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7195,7 +8075,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7228,7 +8108,7 @@
         <v>15093.88044978491</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7261,7 +8141,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7294,7 +8174,7 @@
         <v>15094.88044978491</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7327,7 +8207,7 @@
         <v>15251.08274978491</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7360,7 +8240,7 @@
         <v>15231.09284978491</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7393,7 +8273,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7426,7 +8306,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7459,7 +8339,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7492,7 +8372,7 @@
         <v>15889.00554978491</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7525,7 +8405,7 @@
         <v>18991.86624978491</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7558,7 +8438,7 @@
         <v>22232.93304978491</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7591,7 +8471,7 @@
         <v>22259.93304978491</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7624,7 +8504,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7657,7 +8537,7 @@
         <v>21706.17834978491</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7690,7 +8570,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7723,7 +8603,7 @@
         <v>21542.67274978491</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7756,7 +8636,7 @@
         <v>20270.6649683453</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7789,7 +8669,7 @@
         <v>19282.5934683453</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7822,7 +8702,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7855,7 +8735,7 @@
         <v>18998.4313683453</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7888,7 +8768,7 @@
         <v>20512.1788683453</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7921,7 +8801,7 @@
         <v>20444.9209683453</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7954,7 +8834,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7987,7 +8867,7 @@
         <v>20191.0995683453</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8020,7 +8900,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8053,7 +8933,7 @@
         <v>20158.9664683453</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -12442,7 +13322,7 @@
         <v>21599.27729908009</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12475,7 +13355,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12508,7 +13388,7 @@
         <v>20439.80729908009</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12541,7 +13421,7 @@
         <v>19250.30139908009</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12706,7 +13586,7 @@
         <v>23921.18769908008</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12805,7 +13685,7 @@
         <v>25790.89189908008</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12838,7 +13718,7 @@
         <v>25797.60506872294</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12904,7 +13784,7 @@
         <v>23725.85256872294</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12970,7 +13850,7 @@
         <v>24061.52506872294</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13003,7 +13883,7 @@
         <v>24495.24326872294</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13036,7 +13916,7 @@
         <v>24576.74326872294</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13069,7 +13949,7 @@
         <v>24151.85229085098</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13102,7 +13982,7 @@
         <v>24544.09269085098</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13135,7 +14015,7 @@
         <v>24654.04519085098</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13168,7 +14048,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13201,7 +14081,7 @@
         <v>24644.81489085098</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13432,7 +14312,7 @@
         <v>22737.75199085098</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13630,7 +14510,7 @@
         <v>22240.41159085098</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
